--- a/data/Output/鳥Bouno!/店舗情報まとめ.xlsx
+++ b/data/Output/鳥Bouno!/店舗情報まとめ.xlsx
@@ -1548,7 +1548,7 @@
         <v>5511.441717791411</v>
       </c>
       <c r="H2" t="n">
-        <v>898365</v>
+        <v>2755.720858895706</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1574,7 +1574,7 @@
         <v>5255.909090909091</v>
       </c>
       <c r="H3" t="n">
-        <v>751595</v>
+        <v>2627.954545454545</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1600,7 +1600,7 @@
         <v>8176.571428571428</v>
       </c>
       <c r="H4" t="n">
-        <v>381573.3333333333</v>
+        <v>2725.52380952381</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1626,7 +1626,7 @@
         <v>8742.479338842975</v>
       </c>
       <c r="H5" t="n">
-        <v>352613.3333333333</v>
+        <v>2914.159779614325</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1652,7 +1652,7 @@
         <v>10549.20792079208</v>
       </c>
       <c r="H6" t="n">
-        <v>266367.5</v>
+        <v>2637.30198019802</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1678,7 +1678,7 @@
         <v>12418.08823529412</v>
       </c>
       <c r="H7" t="n">
-        <v>168886</v>
+        <v>2483.617647058823</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1704,7 +1704,7 @@
         <v>11926.875</v>
       </c>
       <c r="H8" t="n">
-        <v>190830</v>
+        <v>2981.71875</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1730,7 +1730,7 @@
         <v>15101.55555555555</v>
       </c>
       <c r="H9" t="n">
-        <v>113261.6666666667</v>
+        <v>2516.925925925926</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1782,7 +1782,7 @@
         <v>6305.789473684211</v>
       </c>
       <c r="H11" t="n">
-        <v>119810</v>
+        <v>3152.894736842105</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1808,7 +1808,7 @@
         <v>13231.17647058824</v>
       </c>
       <c r="H12" t="n">
-        <v>89972</v>
+        <v>2646.235294117647</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1834,7 +1834,7 @@
         <v>17826.4</v>
       </c>
       <c r="H13" t="n">
-        <v>74276.66666666667</v>
+        <v>2971.066666666667</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1860,7 +1860,7 @@
         <v>15408.57142857143</v>
       </c>
       <c r="H14" t="n">
-        <v>46225.71428571428</v>
+        <v>2201.224489795919</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1886,7 +1886,7 @@
         <v>11750.95238095238</v>
       </c>
       <c r="H15" t="n">
-        <v>61692.5</v>
+        <v>2937.738095238095</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1912,7 +1912,7 @@
         <v>26526.66666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>49737.5</v>
+        <v>3315.833333333333</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1938,7 +1938,7 @@
         <v>8515.714285714286</v>
       </c>
       <c r="H17" t="n">
-        <v>39740</v>
+        <v>2838.571428571429</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1964,7 +1964,7 @@
         <v>1495.071428571429</v>
       </c>
       <c r="H18" t="n">
-        <v>20931</v>
+        <v>1495.071428571429</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1990,7 +1990,7 @@
         <v>27545.38461538462</v>
       </c>
       <c r="H19" t="n">
-        <v>35809</v>
+        <v>2754.538461538462</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2016,7 +2016,7 @@
         <v>24171.66666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>36257.5</v>
+        <v>3021.458333333333</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2042,7 +2042,7 @@
         <v>21615.83333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>37055.71428571428</v>
+        <v>3087.97619047619</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2068,7 +2068,7 @@
         <v>21657.27272727273</v>
       </c>
       <c r="H22" t="n">
-        <v>26470</v>
+        <v>2406.363636363636</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2094,7 +2094,7 @@
         <v>30140</v>
       </c>
       <c r="H23" t="n">
-        <v>24660</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2120,7 +2120,7 @@
         <v>13035</v>
       </c>
       <c r="H24" t="n">
-        <v>20856</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2146,7 +2146,7 @@
         <v>16211.25</v>
       </c>
       <c r="H25" t="n">
-        <v>21615</v>
+        <v>2701.875</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2172,7 +2172,7 @@
         <v>18888.57142857143</v>
       </c>
       <c r="H26" t="n">
-        <v>8814.666666666666</v>
+        <v>1259.238095238095</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2198,7 +2198,7 @@
         <v>26878.57142857143</v>
       </c>
       <c r="H27" t="n">
-        <v>20905.55555555555</v>
+        <v>2986.507936507936</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2224,7 +2224,7 @@
         <v>38713.33333333334</v>
       </c>
       <c r="H28" t="n">
-        <v>19356.66666666667</v>
+        <v>3226.111111111111</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2250,7 +2250,7 @@
         <v>44425</v>
       </c>
       <c r="H29" t="n">
-        <v>19039.28571428571</v>
+        <v>3173.214285714286</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2276,7 +2276,7 @@
         <v>27470</v>
       </c>
       <c r="H30" t="n">
-        <v>16482</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2302,7 +2302,7 @@
         <v>8458</v>
       </c>
       <c r="H31" t="n">
-        <v>14096.66666666667</v>
+        <v>2819.333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2328,7 +2328,7 @@
         <v>38810</v>
       </c>
       <c r="H32" t="n">
-        <v>14926.92307692308</v>
+        <v>2985.384615384615</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2354,7 +2354,7 @@
         <v>44068</v>
       </c>
       <c r="H33" t="n">
-        <v>11017</v>
+        <v>2203.4</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2380,7 +2380,7 @@
         <v>15920</v>
       </c>
       <c r="H34" t="n">
-        <v>9097.142857142857</v>
+        <v>2274.285714285714</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2406,7 +2406,7 @@
         <v>13840</v>
       </c>
       <c r="H35" t="n">
-        <v>8304</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2432,7 +2432,7 @@
         <v>27476.66666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>7493.636363636364</v>
+        <v>2497.878787878788</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2458,7 +2458,7 @@
         <v>54426.66666666666</v>
       </c>
       <c r="H37" t="n">
-        <v>10205</v>
+        <v>3401.666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2484,7 +2484,7 @@
         <v>-8180</v>
       </c>
       <c r="H38" t="n">
-        <v>5453.333333333333</v>
+        <v>2726.666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2510,7 +2510,7 @@
         <v>30545</v>
       </c>
       <c r="H39" t="n">
-        <v>5090.833333333333</v>
+        <v>2545.416666666667</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2536,7 +2536,7 @@
         <v>8435</v>
       </c>
       <c r="H40" t="n">
-        <v>4217.5</v>
+        <v>2108.75</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2562,7 +2562,7 @@
         <v>95640</v>
       </c>
       <c r="H41" t="n">
-        <v>8316.521739130434</v>
+        <v>4158.260869565217</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2588,7 +2588,7 @@
         <v>22510</v>
       </c>
       <c r="H42" t="n">
-        <v>7503.333333333333</v>
+        <v>3751.666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2614,7 +2614,7 @@
         <v>13175</v>
       </c>
       <c r="H43" t="n">
-        <v>6587.5</v>
+        <v>3293.75</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2640,7 +2640,7 @@
         <v>-5430</v>
       </c>
       <c r="H44" t="n">
-        <v>5430</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2666,7 +2666,7 @@
         <v>13780</v>
       </c>
       <c r="H45" t="n">
-        <v>3445</v>
+        <v>1722.5</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2692,7 +2692,7 @@
         <v>32710</v>
       </c>
       <c r="H46" t="n">
-        <v>3443.157894736842</v>
+        <v>1721.578947368421</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2718,7 +2718,7 @@
         <v>80040</v>
       </c>
       <c r="H47" t="n">
-        <v>6670</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2744,7 +2744,7 @@
         <v>44965</v>
       </c>
       <c r="H48" t="n">
-        <v>5620.625</v>
+        <v>2810.3125</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2770,7 +2770,7 @@
         <v>-9185</v>
       </c>
       <c r="H49" t="n">
-        <v>9185</v>
+        <v>4592.5</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2796,7 +2796,7 @@
         <v>84100</v>
       </c>
       <c r="H50" t="n">
-        <v>8009.523809523809</v>
+        <v>4004.761904761905</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2822,7 +2822,7 @@
         <v>8160</v>
       </c>
       <c r="H51" t="n">
-        <v>16320</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="52" spans="1:8">
